--- a/LW_Web/_Templates/_Template - WOAnalysis_01 - MMM-MMM.xlsx
+++ b/LW_Web/_Templates/_Template - WOAnalysis_01 - MMM-MMM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\Source\Repos\lemlewolff\LW_Web\_Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31559F4-B18B-48E9-B2D3-251368579F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F27771-9F34-48B0-9021-1DBFCA0C1A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="510" xr2:uid="{3C759B79-F44A-4AB8-ADE2-0792C7E368A4}"/>
   </bookViews>
@@ -17,9 +17,10 @@
     <sheet name="Lookup Tables" sheetId="4" r:id="rId2"/>
     <sheet name="Results Explained" sheetId="6" r:id="rId3"/>
     <sheet name="ADP Missing WO" sheetId="7" r:id="rId4"/>
+    <sheet name="Bonus Calcs" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Results!$A$1:$BI$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Results!$A$1:$BJ$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="120">
   <si>
     <t>WONumber</t>
   </si>
@@ -873,15 +874,64 @@
   <si>
     <t>Dollars</t>
   </si>
+  <si>
+    <t>Laborer1_Bonus</t>
+  </si>
+  <si>
+    <t>Laborer2_Bonus</t>
+  </si>
+  <si>
+    <t>Laborer3_Bonus</t>
+  </si>
+  <si>
+    <t>Laborer4_Bonus</t>
+  </si>
+  <si>
+    <t>FinalSalePrice * (WN / Sum(WNs)) * B1
+WN = Bonus Factor from tblLaborers
+B1 = Bonus Factor from Lookup Table</t>
+  </si>
+  <si>
+    <t>Bonus Factor</t>
+  </si>
+  <si>
+    <t>LaborerID</t>
+  </si>
+  <si>
+    <t>LaborerName</t>
+  </si>
+  <si>
+    <t>Laborer_Bonus</t>
+  </si>
+  <si>
+    <t>TOTALS</t>
+  </si>
+  <si>
+    <t>LaborerBonus</t>
+  </si>
+  <si>
+    <t>SumFinalSalePrice</t>
+  </si>
+  <si>
+    <t>SumTotalMaterialPricing</t>
+  </si>
+  <si>
+    <t>Invoice_x_Material</t>
+  </si>
+  <si>
+    <t>Annualized</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1009,8 +1059,15 @@
       <family val="2"/>
       <charset val="161"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1035,8 +1092,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1053,11 +1122,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1115,9 +1209,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1135,16 +1226,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1161,9 +1266,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1201,7 +1306,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1307,7 +1412,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1449,7 +1554,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1457,13 +1562,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D50073D-2DBD-4FF1-A712-B5B189C24F36}">
-  <dimension ref="A1:BI1"/>
+  <dimension ref="A1:BJ1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AQ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1476,234 +1581,234 @@
     <col min="6" max="6" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5546875" style="2" customWidth="1"/>
     <col min="8" max="8" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="26" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="25" customWidth="1"/>
     <col min="10" max="10" width="18.88671875" style="2" customWidth="1"/>
     <col min="11" max="11" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="39.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.88671875" style="7" customWidth="1"/>
-    <col min="19" max="19" width="27" style="7" customWidth="1"/>
-    <col min="20" max="20" width="24.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="36" max="39" width="16.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="40" max="47" width="16.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.109375" style="9" customWidth="1"/>
-    <col min="53" max="53" width="27.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="10.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="14.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="13.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="13.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="23.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="21.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="62" max="16384" width="8.88671875" style="5"/>
+    <col min="14" max="14" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.88671875" style="7" customWidth="1"/>
+    <col min="18" max="18" width="27" style="7" customWidth="1"/>
+    <col min="19" max="19" width="24.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="34" max="37" width="16.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="38" max="49" width="16.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="14.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="16.109375" style="9" customWidth="1"/>
+    <col min="54" max="54" width="27.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="10.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="14.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="11.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="23.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="21.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="63" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="30" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:62" s="29" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="N1" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="30" t="s">
+      <c r="N1" s="29" t="s">
         <v>9</v>
       </c>
+      <c r="O1" s="29" t="s">
+        <v>10</v>
+      </c>
       <c r="P1" s="30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q1" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="32" t="s">
+      <c r="R1" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="S1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="T1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="U1" s="29" t="s">
         <v>15</v>
       </c>
+      <c r="V1" s="29" t="s">
+        <v>16</v>
+      </c>
       <c r="W1" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="X1" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z1" s="28" t="s">
+      <c r="X1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="31" t="s">
+      <c r="Y1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="28" t="s">
+      <c r="Z1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="28" t="s">
+      <c r="AA1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="28" t="s">
+      <c r="AB1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" s="28" t="s">
+      <c r="AC1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="AF1" s="30" t="s">
+      <c r="AD1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" s="30" t="s">
+      <c r="AE1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="AH1" s="30" t="s">
+      <c r="AF1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="AI1" s="30" t="s">
+      <c r="AG1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="AJ1" s="30" t="s">
+      <c r="AH1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="AK1" s="30" t="s">
+      <c r="AI1" s="29" t="s">
         <v>30</v>
       </c>
+      <c r="AJ1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK1" s="29" t="s">
+        <v>32</v>
+      </c>
       <c r="AL1" s="30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AM1" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN1" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="AP1" s="31" t="s">
+      <c r="AN1" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="AQ1" s="31" t="s">
+      <c r="AO1" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="AR1" s="31" t="s">
+      <c r="AP1" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="AS1" s="31" t="s">
+      <c r="AQ1" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="AT1" s="31" t="s">
+      <c r="AR1" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="AU1" s="31" t="s">
+      <c r="AS1" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="AV1" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="AW1" s="31" t="s">
+      <c r="AT1" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU1" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV1" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="AW1" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="AX1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AX1" s="30" t="s">
+      <c r="AY1" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AY1" s="31" t="s">
+      <c r="AZ1" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="AZ1" s="31" t="s">
+      <c r="BA1" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="BA1" s="31" t="s">
+      <c r="BB1" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="BB1" s="31" t="s">
+      <c r="BC1" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="BC1" s="31" t="s">
+      <c r="BD1" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="BD1" s="31" t="s">
+      <c r="BE1" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="BE1" s="31" t="s">
+      <c r="BF1" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="BF1" s="31" t="s">
+      <c r="BG1" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="BG1" s="31" t="s">
+      <c r="BH1" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="BH1" s="31" t="s">
+      <c r="BI1" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="BI1" s="31" t="s">
+      <c r="BJ1" s="30" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BI1" xr:uid="{2D50073D-2DBD-4FF1-A712-B5B189C24F36}"/>
+  <autoFilter ref="A1:BJ1" xr:uid="{2D50073D-2DBD-4FF1-A712-B5B189C24F36}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -1711,7 +1816,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A7EB70-D16E-4C28-8F83-46986E16FACE}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -1725,30 +1830,32 @@
     <col min="4" max="4" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="15.44140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" style="11" customWidth="1"/>
-    <col min="12" max="12" width="2.6640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="15.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" style="11" customWidth="1"/>
+    <col min="13" max="13" width="2.6640625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="H1" s="34" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="34"/>
+      <c r="I1" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-    </row>
-    <row r="2" spans="1:12" s="10" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+    </row>
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>51</v>
       </c>
@@ -1767,40 +1874,43 @@
       <c r="F2" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="22" t="s">
+      <c r="G2" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="J2" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="K2" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="L2" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="13"/>
-    </row>
-    <row r="20" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J20" s="27"/>
-    </row>
-    <row r="21" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J21" s="27"/>
-    </row>
-    <row r="22" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J22" s="27"/>
-    </row>
-    <row r="23" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J23" s="27"/>
-    </row>
-    <row r="24" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J24" s="27"/>
+      <c r="M2" s="13"/>
+    </row>
+    <row r="20" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K20" s="26"/>
+    </row>
+    <row r="21" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K21" s="26"/>
+    </row>
+    <row r="22" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K22" s="26"/>
+    </row>
+    <row r="23" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K23" s="26"/>
+    </row>
+    <row r="24" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K24" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="I1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1809,7 +1919,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1498219D-D660-4818-BE53-0290365DFDFE}">
-  <dimension ref="A1:BI1435"/>
+  <dimension ref="A1:BM1435"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1843,25 +1953,25 @@
     <col min="32" max="35" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="36" max="39" width="16.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="40" max="43" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="44" max="47" width="16.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="15.109375" style="5" customWidth="1"/>
-    <col min="51" max="51" width="22.6640625" style="5" customWidth="1"/>
-    <col min="52" max="52" width="21.77734375" style="5" customWidth="1"/>
-    <col min="53" max="53" width="26.44140625" style="9" customWidth="1"/>
-    <col min="54" max="54" width="12.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="11.33203125" style="9" customWidth="1"/>
-    <col min="58" max="58" width="20.5546875" style="9" customWidth="1"/>
-    <col min="59" max="59" width="13.33203125" style="9" customWidth="1"/>
-    <col min="60" max="60" width="20.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="18.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="62" max="16384" width="8.88671875" style="5"/>
+    <col min="44" max="51" width="16.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.109375" style="5" customWidth="1"/>
+    <col min="55" max="55" width="22.6640625" style="5" customWidth="1"/>
+    <col min="56" max="56" width="21.77734375" style="5" customWidth="1"/>
+    <col min="57" max="57" width="26.44140625" style="9" customWidth="1"/>
+    <col min="58" max="58" width="12.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="8.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="11.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.33203125" style="9" customWidth="1"/>
+    <col min="62" max="62" width="20.5546875" style="9" customWidth="1"/>
+    <col min="63" max="63" width="13.33203125" style="9" customWidth="1"/>
+    <col min="64" max="64" width="20.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="18.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="66" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="19" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:65" s="19" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -2003,50 +2113,62 @@
       <c r="AU1" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="AV1" s="18" t="s">
+      <c r="AV1" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="AW1" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="AX1" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="AY1" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AZ1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="AW1" s="19" t="s">
+      <c r="BA1" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AX1" s="19" t="s">
+      <c r="BB1" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AY1" s="19" t="s">
+      <c r="BC1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AZ1" s="19" t="s">
+      <c r="BD1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="BA1" s="21" t="s">
+      <c r="BE1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="BB1" s="21" t="s">
+      <c r="BF1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="BC1" s="21" t="s">
+      <c r="BG1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="BD1" s="21" t="s">
+      <c r="BH1" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="BE1" s="21" t="s">
+      <c r="BI1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="BF1" s="21" t="s">
+      <c r="BJ1" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="BG1" s="21" t="s">
+      <c r="BK1" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="BH1" s="21" t="s">
+      <c r="BL1" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="BI1" s="21" t="s">
+      <c r="BM1" s="21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:61" s="14" customFormat="1" ht="296.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:65" s="14" customFormat="1" ht="296.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>63</v>
       </c>
@@ -2097,39 +2219,51 @@
       <c r="AS2" s="9"/>
       <c r="AT2" s="9"/>
       <c r="AU2" s="9"/>
-      <c r="AY2" s="14" t="s">
+      <c r="AV2" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW2" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX2" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY2" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="BC2" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="AZ2" s="14" t="s">
+      <c r="BD2" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="BA2" s="14" t="s">
+      <c r="BE2" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="BB2" s="17" t="s">
+      <c r="BF2" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="BC2" s="17"/>
-      <c r="BD2" s="17" t="s">
+      <c r="BG2" s="17"/>
+      <c r="BH2" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="BE2" s="17" t="s">
+      <c r="BI2" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="BF2" s="17" t="s">
+      <c r="BJ2" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="BG2" s="17" t="s">
+      <c r="BK2" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="BH2" s="17" t="s">
+      <c r="BL2" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="BI2" s="17" t="s">
+      <c r="BM2" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.3">
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="4"/>
@@ -2139,7 +2273,7 @@
       <c r="K3" s="4"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.3">
       <c r="E4" s="3"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -2148,7 +2282,7 @@
       <c r="K4" s="4"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.3">
       <c r="E5" s="3"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -2158,7 +2292,7 @@
       <c r="Z5" s="3"/>
       <c r="AF5" s="8"/>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.3">
       <c r="F6" s="3"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -2167,7 +2301,7 @@
       <c r="K6" s="4"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.3">
       <c r="E7" s="3"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -2176,7 +2310,7 @@
       <c r="K7" s="4"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.3">
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="4"/>
@@ -2186,7 +2320,7 @@
       <c r="K8" s="4"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.3">
       <c r="F9" s="3"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -2195,7 +2329,7 @@
       <c r="K9" s="4"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.3">
       <c r="E10" s="3"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -2204,7 +2338,7 @@
       <c r="K10" s="4"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.3">
       <c r="E11" s="3"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -2213,7 +2347,7 @@
       <c r="K11" s="4"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:65" x14ac:dyDescent="0.3">
       <c r="C12" s="6"/>
       <c r="E12" s="3"/>
       <c r="G12" s="4"/>
@@ -2223,7 +2357,7 @@
       <c r="K12" s="4"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.3">
       <c r="E13" s="3"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -2232,7 +2366,7 @@
       <c r="K13" s="4"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.3">
       <c r="E14" s="3"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -2241,7 +2375,7 @@
       <c r="K14" s="4"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.3">
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="4"/>
@@ -2251,7 +2385,7 @@
       <c r="K15" s="4"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:65" x14ac:dyDescent="0.3">
       <c r="E16" s="3"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -15302,40 +15436,127 @@
     <col min="7" max="7" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="36" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:7" s="33" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="33" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E2" s="35"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E3" s="35"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E4" s="35"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E5" s="35"/>
+      <c r="E5" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15325C15-EBD8-4A2B-B0E2-76CD65E0F67B}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5546875" style="44" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22" style="40" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.21875" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="37" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="43"/>
+      <c r="H1" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M2" s="42"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M3" s="42"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M4" s="42"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M5" s="42"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M6" s="42"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M7" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LW_Web/_Templates/_Template - WOAnalysis_01 - MMM-MMM.xlsx
+++ b/LW_Web/_Templates/_Template - WOAnalysis_01 - MMM-MMM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\Source\Repos\lemlewolff\LW_Web\_Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F27771-9F34-48B0-9021-1DBFCA0C1A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6546B67F-45C8-4EC5-B726-79871E1D2C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="510" xr2:uid="{3C759B79-F44A-4AB8-ADE2-0792C7E368A4}"/>
+    <workbookView xWindow="3708" yWindow="888" windowWidth="17280" windowHeight="11472" tabRatio="630" xr2:uid="{3C759B79-F44A-4AB8-ADE2-0792C7E368A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="3" r:id="rId1"/>
@@ -895,9 +895,6 @@
     <t>Bonus Factor</t>
   </si>
   <si>
-    <t>LaborerID</t>
-  </si>
-  <si>
     <t>LaborerName</t>
   </si>
   <si>
@@ -920,6 +917,9 @@
   </si>
   <si>
     <t>Annualized</t>
+  </si>
+  <si>
+    <t>Percentage</t>
   </si>
 </sst>
 </file>
@@ -1151,7 +1151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1234,19 +1234,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1565,10 +1564,10 @@
   <dimension ref="A1:BJ1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AQ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1839,21 +1838,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
       <c r="G1" s="34"/>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
     </row>
     <row r="2" spans="1:13" s="10" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
@@ -15481,82 +15480,82 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5546875" style="44" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.5546875" style="42" customWidth="1"/>
     <col min="8" max="8" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22" style="40" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.21875" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22" style="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.21875" style="39" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="37" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:13" s="36" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="E1" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="41"/>
+      <c r="H1" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="39" t="s">
+      <c r="I1" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="J1" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="K1" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="L1" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="M1" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="M1" s="37" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M2" s="42"/>
+      <c r="M2" s="40"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M3" s="42"/>
+      <c r="M3" s="40"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M4" s="42"/>
+      <c r="M4" s="40"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M5" s="42"/>
+      <c r="M5" s="40"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M6" s="42"/>
+      <c r="M6" s="40"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M7" s="42"/>
+      <c r="M7" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
